--- a/Benchmark/OEQ_Benchmark/shape.xlsx
+++ b/Benchmark/OEQ_Benchmark/shape.xlsx
@@ -25,226 +25,226 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>shape_0.png</t>
-  </si>
-  <si>
-    <t>shape_1.png</t>
-  </si>
-  <si>
-    <t>shape_2.png</t>
-  </si>
-  <si>
-    <t>shape_3.png</t>
-  </si>
-  <si>
-    <t>shape_4.png</t>
-  </si>
-  <si>
-    <t>shape_5.png</t>
-  </si>
-  <si>
-    <t>shape_6.png</t>
-  </si>
-  <si>
-    <t>shape_7.png</t>
-  </si>
-  <si>
-    <t>shape_8.png</t>
-  </si>
-  <si>
-    <t>shape_9.png</t>
-  </si>
-  <si>
-    <t>shape_10.png</t>
-  </si>
-  <si>
-    <t>shape_11.png</t>
-  </si>
-  <si>
-    <t>shape_12.png</t>
-  </si>
-  <si>
-    <t>shape_13.png</t>
-  </si>
-  <si>
-    <t>shape_14.png</t>
-  </si>
-  <si>
-    <t>shape_15.png</t>
-  </si>
-  <si>
-    <t>shape_16.png</t>
-  </si>
-  <si>
-    <t>shape_17.png</t>
-  </si>
-  <si>
-    <t>shape_18.png</t>
-  </si>
-  <si>
-    <t>shape_19.png</t>
-  </si>
-  <si>
-    <t>shape_20.png</t>
-  </si>
-  <si>
-    <t>shape_21.png</t>
-  </si>
-  <si>
-    <t>shape_22.png</t>
-  </si>
-  <si>
-    <t>shape_23.png</t>
-  </si>
-  <si>
-    <t>shape_24.png</t>
-  </si>
-  <si>
-    <t>shape_25.png</t>
-  </si>
-  <si>
-    <t>shape_26.png</t>
-  </si>
-  <si>
-    <t>shape_27.png</t>
-  </si>
-  <si>
-    <t>shape_28.png</t>
-  </si>
-  <si>
-    <t>shape_29.png</t>
-  </si>
-  <si>
-    <t>shape_30.png</t>
-  </si>
-  <si>
-    <t>shape_31.png</t>
-  </si>
-  <si>
-    <t>shape_32.png</t>
-  </si>
-  <si>
-    <t>shape_33.png</t>
-  </si>
-  <si>
-    <t>shape_34.png</t>
-  </si>
-  <si>
-    <t>shape_35.png</t>
-  </si>
-  <si>
-    <t>shape_36.png</t>
-  </si>
-  <si>
-    <t>shape_37.png</t>
-  </si>
-  <si>
-    <t>shape_38.png</t>
-  </si>
-  <si>
-    <t>shape_39.png</t>
-  </si>
-  <si>
-    <t>shape_40.png</t>
-  </si>
-  <si>
-    <t>shape_41.png</t>
-  </si>
-  <si>
-    <t>shape_42.png</t>
-  </si>
-  <si>
-    <t>shape_43.png</t>
-  </si>
-  <si>
-    <t>shape_44.png</t>
-  </si>
-  <si>
-    <t>shape_45.png</t>
-  </si>
-  <si>
-    <t>shape_46.png</t>
-  </si>
-  <si>
-    <t>shape_47.png</t>
-  </si>
-  <si>
-    <t>shape_48.png</t>
-  </si>
-  <si>
-    <t>shape_49.png</t>
-  </si>
-  <si>
-    <t>shape_50.png</t>
-  </si>
-  <si>
-    <t>shape_51.png</t>
-  </si>
-  <si>
-    <t>shape_52.png</t>
-  </si>
-  <si>
-    <t>shape_53.png</t>
-  </si>
-  <si>
-    <t>shape_54.png</t>
-  </si>
-  <si>
-    <t>shape_55.png</t>
-  </si>
-  <si>
-    <t>shape_56.png</t>
-  </si>
-  <si>
-    <t>shape_57.png</t>
-  </si>
-  <si>
-    <t>shape_58.png</t>
-  </si>
-  <si>
-    <t>shape_59.png</t>
-  </si>
-  <si>
-    <t>shape_60.png</t>
-  </si>
-  <si>
-    <t>shape_61.png</t>
-  </si>
-  <si>
-    <t>shape_62.png</t>
-  </si>
-  <si>
-    <t>shape_63.png</t>
-  </si>
-  <si>
-    <t>shape_64.png</t>
-  </si>
-  <si>
-    <t>shape_65.png</t>
-  </si>
-  <si>
-    <t>shape_66.png</t>
-  </si>
-  <si>
-    <t>shape_67.png</t>
-  </si>
-  <si>
-    <t>shape_68.png</t>
-  </si>
-  <si>
-    <t>shape_69.png</t>
-  </si>
-  <si>
-    <t>shape_70.png</t>
-  </si>
-  <si>
-    <t>shape_71.png</t>
-  </si>
-  <si>
-    <t>shape_72.png</t>
-  </si>
-  <si>
-    <t>shape_73.png</t>
+    <t>shape/shape_0.png</t>
+  </si>
+  <si>
+    <t>shape/shape_1.png</t>
+  </si>
+  <si>
+    <t>shape/shape_2.png</t>
+  </si>
+  <si>
+    <t>shape/shape_3.png</t>
+  </si>
+  <si>
+    <t>shape/shape_4.png</t>
+  </si>
+  <si>
+    <t>shape/shape_5.png</t>
+  </si>
+  <si>
+    <t>shape/shape_6.png</t>
+  </si>
+  <si>
+    <t>shape/shape_7.png</t>
+  </si>
+  <si>
+    <t>shape/shape_8.png</t>
+  </si>
+  <si>
+    <t>shape/shape_9.png</t>
+  </si>
+  <si>
+    <t>shape/shape_10.png</t>
+  </si>
+  <si>
+    <t>shape/shape_11.png</t>
+  </si>
+  <si>
+    <t>shape/shape_12.png</t>
+  </si>
+  <si>
+    <t>shape/shape_13.png</t>
+  </si>
+  <si>
+    <t>shape/shape_14.png</t>
+  </si>
+  <si>
+    <t>shape/shape_15.png</t>
+  </si>
+  <si>
+    <t>shape/shape_16.png</t>
+  </si>
+  <si>
+    <t>shape/shape_17.png</t>
+  </si>
+  <si>
+    <t>shape/shape_18.png</t>
+  </si>
+  <si>
+    <t>shape/shape_19.png</t>
+  </si>
+  <si>
+    <t>shape/shape_20.png</t>
+  </si>
+  <si>
+    <t>shape/shape_21.png</t>
+  </si>
+  <si>
+    <t>shape/shape_22.png</t>
+  </si>
+  <si>
+    <t>shape/shape_23.png</t>
+  </si>
+  <si>
+    <t>shape/shape_24.png</t>
+  </si>
+  <si>
+    <t>shape/shape_25.png</t>
+  </si>
+  <si>
+    <t>shape/shape_26.png</t>
+  </si>
+  <si>
+    <t>shape/shape_27.png</t>
+  </si>
+  <si>
+    <t>shape/shape_28.png</t>
+  </si>
+  <si>
+    <t>shape/shape_29.png</t>
+  </si>
+  <si>
+    <t>shape/shape_30.png</t>
+  </si>
+  <si>
+    <t>shape/shape_31.png</t>
+  </si>
+  <si>
+    <t>shape/shape_32.png</t>
+  </si>
+  <si>
+    <t>shape/shape_33.png</t>
+  </si>
+  <si>
+    <t>shape/shape_34.png</t>
+  </si>
+  <si>
+    <t>shape/shape_35.png</t>
+  </si>
+  <si>
+    <t>shape/shape_36.png</t>
+  </si>
+  <si>
+    <t>shape/shape_37.png</t>
+  </si>
+  <si>
+    <t>shape/shape_38.png</t>
+  </si>
+  <si>
+    <t>shape/shape_39.png</t>
+  </si>
+  <si>
+    <t>shape/shape_40.png</t>
+  </si>
+  <si>
+    <t>shape/shape_41.png</t>
+  </si>
+  <si>
+    <t>shape/shape_42.png</t>
+  </si>
+  <si>
+    <t>shape/shape_43.png</t>
+  </si>
+  <si>
+    <t>shape/shape_44.png</t>
+  </si>
+  <si>
+    <t>shape/shape_45.png</t>
+  </si>
+  <si>
+    <t>shape/shape_46.png</t>
+  </si>
+  <si>
+    <t>shape/shape_47.png</t>
+  </si>
+  <si>
+    <t>shape/shape_48.png</t>
+  </si>
+  <si>
+    <t>shape/shape_49.png</t>
+  </si>
+  <si>
+    <t>shape/shape_50.png</t>
+  </si>
+  <si>
+    <t>shape/shape_51.png</t>
+  </si>
+  <si>
+    <t>shape/shape_52.png</t>
+  </si>
+  <si>
+    <t>shape/shape_53.png</t>
+  </si>
+  <si>
+    <t>shape/shape_54.png</t>
+  </si>
+  <si>
+    <t>shape/shape_55.png</t>
+  </si>
+  <si>
+    <t>shape/shape_56.png</t>
+  </si>
+  <si>
+    <t>shape/shape_57.png</t>
+  </si>
+  <si>
+    <t>shape/shape_58.png</t>
+  </si>
+  <si>
+    <t>shape/shape_59.png</t>
+  </si>
+  <si>
+    <t>shape/shape_60.png</t>
+  </si>
+  <si>
+    <t>shape/shape_61.png</t>
+  </si>
+  <si>
+    <t>shape/shape_62.png</t>
+  </si>
+  <si>
+    <t>shape/shape_63.png</t>
+  </si>
+  <si>
+    <t>shape/shape_64.png</t>
+  </si>
+  <si>
+    <t>shape/shape_65.png</t>
+  </si>
+  <si>
+    <t>shape/shape_66.png</t>
+  </si>
+  <si>
+    <t>shape/shape_67.png</t>
+  </si>
+  <si>
+    <t>shape/shape_68.png</t>
+  </si>
+  <si>
+    <t>shape/shape_69.png</t>
+  </si>
+  <si>
+    <t>shape/shape_70.png</t>
+  </si>
+  <si>
+    <t>shape/shape_71.png</t>
+  </si>
+  <si>
+    <t>shape/shape_72.png</t>
+  </si>
+  <si>
+    <t>shape/shape_73.png</t>
   </si>
   <si>
     <t>Describe the shape of the clouds in the picture.</t>

--- a/Benchmark/OEQ_Benchmark/shape.xlsx
+++ b/Benchmark/OEQ_Benchmark/shape.xlsx
@@ -25,226 +25,226 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>shape/shape_0.png</t>
-  </si>
-  <si>
-    <t>shape/shape_1.png</t>
-  </si>
-  <si>
-    <t>shape/shape_2.png</t>
-  </si>
-  <si>
-    <t>shape/shape_3.png</t>
-  </si>
-  <si>
-    <t>shape/shape_4.png</t>
-  </si>
-  <si>
-    <t>shape/shape_5.png</t>
-  </si>
-  <si>
-    <t>shape/shape_6.png</t>
-  </si>
-  <si>
-    <t>shape/shape_7.png</t>
-  </si>
-  <si>
-    <t>shape/shape_8.png</t>
-  </si>
-  <si>
-    <t>shape/shape_9.png</t>
-  </si>
-  <si>
-    <t>shape/shape_10.png</t>
-  </si>
-  <si>
-    <t>shape/shape_11.png</t>
-  </si>
-  <si>
-    <t>shape/shape_12.png</t>
-  </si>
-  <si>
-    <t>shape/shape_13.png</t>
-  </si>
-  <si>
-    <t>shape/shape_14.png</t>
-  </si>
-  <si>
-    <t>shape/shape_15.png</t>
-  </si>
-  <si>
-    <t>shape/shape_16.png</t>
-  </si>
-  <si>
-    <t>shape/shape_17.png</t>
-  </si>
-  <si>
-    <t>shape/shape_18.png</t>
-  </si>
-  <si>
-    <t>shape/shape_19.png</t>
-  </si>
-  <si>
-    <t>shape/shape_20.png</t>
-  </si>
-  <si>
-    <t>shape/shape_21.png</t>
-  </si>
-  <si>
-    <t>shape/shape_22.png</t>
-  </si>
-  <si>
-    <t>shape/shape_23.png</t>
-  </si>
-  <si>
-    <t>shape/shape_24.png</t>
-  </si>
-  <si>
-    <t>shape/shape_25.png</t>
-  </si>
-  <si>
-    <t>shape/shape_26.png</t>
-  </si>
-  <si>
-    <t>shape/shape_27.png</t>
-  </si>
-  <si>
-    <t>shape/shape_28.png</t>
-  </si>
-  <si>
-    <t>shape/shape_29.png</t>
-  </si>
-  <si>
-    <t>shape/shape_30.png</t>
-  </si>
-  <si>
-    <t>shape/shape_31.png</t>
-  </si>
-  <si>
-    <t>shape/shape_32.png</t>
-  </si>
-  <si>
-    <t>shape/shape_33.png</t>
-  </si>
-  <si>
-    <t>shape/shape_34.png</t>
-  </si>
-  <si>
-    <t>shape/shape_35.png</t>
-  </si>
-  <si>
-    <t>shape/shape_36.png</t>
-  </si>
-  <si>
-    <t>shape/shape_37.png</t>
-  </si>
-  <si>
-    <t>shape/shape_38.png</t>
-  </si>
-  <si>
-    <t>shape/shape_39.png</t>
-  </si>
-  <si>
-    <t>shape/shape_40.png</t>
-  </si>
-  <si>
-    <t>shape/shape_41.png</t>
-  </si>
-  <si>
-    <t>shape/shape_42.png</t>
-  </si>
-  <si>
-    <t>shape/shape_43.png</t>
-  </si>
-  <si>
-    <t>shape/shape_44.png</t>
-  </si>
-  <si>
-    <t>shape/shape_45.png</t>
-  </si>
-  <si>
-    <t>shape/shape_46.png</t>
-  </si>
-  <si>
-    <t>shape/shape_47.png</t>
-  </si>
-  <si>
-    <t>shape/shape_48.png</t>
-  </si>
-  <si>
-    <t>shape/shape_49.png</t>
-  </si>
-  <si>
-    <t>shape/shape_50.png</t>
-  </si>
-  <si>
-    <t>shape/shape_51.png</t>
-  </si>
-  <si>
-    <t>shape/shape_52.png</t>
-  </si>
-  <si>
-    <t>shape/shape_53.png</t>
-  </si>
-  <si>
-    <t>shape/shape_54.png</t>
-  </si>
-  <si>
-    <t>shape/shape_55.png</t>
-  </si>
-  <si>
-    <t>shape/shape_56.png</t>
-  </si>
-  <si>
-    <t>shape/shape_57.png</t>
-  </si>
-  <si>
-    <t>shape/shape_58.png</t>
-  </si>
-  <si>
-    <t>shape/shape_59.png</t>
-  </si>
-  <si>
-    <t>shape/shape_60.png</t>
-  </si>
-  <si>
-    <t>shape/shape_61.png</t>
-  </si>
-  <si>
-    <t>shape/shape_62.png</t>
-  </si>
-  <si>
-    <t>shape/shape_63.png</t>
-  </si>
-  <si>
-    <t>shape/shape_64.png</t>
-  </si>
-  <si>
-    <t>shape/shape_65.png</t>
-  </si>
-  <si>
-    <t>shape/shape_66.png</t>
-  </si>
-  <si>
-    <t>shape/shape_67.png</t>
-  </si>
-  <si>
-    <t>shape/shape_68.png</t>
-  </si>
-  <si>
-    <t>shape/shape_69.png</t>
-  </si>
-  <si>
-    <t>shape/shape_70.png</t>
-  </si>
-  <si>
-    <t>shape/shape_71.png</t>
-  </si>
-  <si>
-    <t>shape/shape_72.png</t>
-  </si>
-  <si>
-    <t>shape/shape_73.png</t>
+    <t>shape_0.png</t>
+  </si>
+  <si>
+    <t>shape_1.png</t>
+  </si>
+  <si>
+    <t>shape_2.png</t>
+  </si>
+  <si>
+    <t>shape_3.png</t>
+  </si>
+  <si>
+    <t>shape_4.png</t>
+  </si>
+  <si>
+    <t>shape_5.png</t>
+  </si>
+  <si>
+    <t>shape_6.png</t>
+  </si>
+  <si>
+    <t>shape_7.png</t>
+  </si>
+  <si>
+    <t>shape_8.png</t>
+  </si>
+  <si>
+    <t>shape_9.png</t>
+  </si>
+  <si>
+    <t>shape_10.png</t>
+  </si>
+  <si>
+    <t>shape_11.png</t>
+  </si>
+  <si>
+    <t>shape_12.png</t>
+  </si>
+  <si>
+    <t>shape_13.png</t>
+  </si>
+  <si>
+    <t>shape_14.png</t>
+  </si>
+  <si>
+    <t>shape_15.png</t>
+  </si>
+  <si>
+    <t>shape_16.png</t>
+  </si>
+  <si>
+    <t>shape_17.png</t>
+  </si>
+  <si>
+    <t>shape_18.png</t>
+  </si>
+  <si>
+    <t>shape_19.png</t>
+  </si>
+  <si>
+    <t>shape_20.png</t>
+  </si>
+  <si>
+    <t>shape_21.png</t>
+  </si>
+  <si>
+    <t>shape_22.png</t>
+  </si>
+  <si>
+    <t>shape_23.png</t>
+  </si>
+  <si>
+    <t>shape_24.png</t>
+  </si>
+  <si>
+    <t>shape_25.png</t>
+  </si>
+  <si>
+    <t>shape_26.png</t>
+  </si>
+  <si>
+    <t>shape_27.png</t>
+  </si>
+  <si>
+    <t>shape_28.png</t>
+  </si>
+  <si>
+    <t>shape_29.png</t>
+  </si>
+  <si>
+    <t>shape_30.png</t>
+  </si>
+  <si>
+    <t>shape_31.png</t>
+  </si>
+  <si>
+    <t>shape_32.png</t>
+  </si>
+  <si>
+    <t>shape_33.png</t>
+  </si>
+  <si>
+    <t>shape_34.png</t>
+  </si>
+  <si>
+    <t>shape_35.png</t>
+  </si>
+  <si>
+    <t>shape_36.png</t>
+  </si>
+  <si>
+    <t>shape_37.png</t>
+  </si>
+  <si>
+    <t>shape_38.png</t>
+  </si>
+  <si>
+    <t>shape_39.png</t>
+  </si>
+  <si>
+    <t>shape_40.png</t>
+  </si>
+  <si>
+    <t>shape_41.png</t>
+  </si>
+  <si>
+    <t>shape_42.png</t>
+  </si>
+  <si>
+    <t>shape_43.png</t>
+  </si>
+  <si>
+    <t>shape_44.png</t>
+  </si>
+  <si>
+    <t>shape_45.png</t>
+  </si>
+  <si>
+    <t>shape_46.png</t>
+  </si>
+  <si>
+    <t>shape_47.png</t>
+  </si>
+  <si>
+    <t>shape_48.png</t>
+  </si>
+  <si>
+    <t>shape_49.png</t>
+  </si>
+  <si>
+    <t>shape_50.png</t>
+  </si>
+  <si>
+    <t>shape_51.png</t>
+  </si>
+  <si>
+    <t>shape_52.png</t>
+  </si>
+  <si>
+    <t>shape_53.png</t>
+  </si>
+  <si>
+    <t>shape_54.png</t>
+  </si>
+  <si>
+    <t>shape_55.png</t>
+  </si>
+  <si>
+    <t>shape_56.png</t>
+  </si>
+  <si>
+    <t>shape_57.png</t>
+  </si>
+  <si>
+    <t>shape_58.png</t>
+  </si>
+  <si>
+    <t>shape_59.png</t>
+  </si>
+  <si>
+    <t>shape_60.png</t>
+  </si>
+  <si>
+    <t>shape_61.png</t>
+  </si>
+  <si>
+    <t>shape_62.png</t>
+  </si>
+  <si>
+    <t>shape_63.png</t>
+  </si>
+  <si>
+    <t>shape_64.png</t>
+  </si>
+  <si>
+    <t>shape_65.png</t>
+  </si>
+  <si>
+    <t>shape_66.png</t>
+  </si>
+  <si>
+    <t>shape_67.png</t>
+  </si>
+  <si>
+    <t>shape_68.png</t>
+  </si>
+  <si>
+    <t>shape_69.png</t>
+  </si>
+  <si>
+    <t>shape_70.png</t>
+  </si>
+  <si>
+    <t>shape_71.png</t>
+  </si>
+  <si>
+    <t>shape_72.png</t>
+  </si>
+  <si>
+    <t>shape_73.png</t>
   </si>
   <si>
     <t>Describe the shape of the clouds in the picture.</t>
